--- a/Person/张晓焕/故事.xlsx
+++ b/Person/张晓焕/故事.xlsx
@@ -8,13 +8,21 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="RLSevirity">[1]SETUP!$O$2:$O$5</definedName>
+    <definedName name="RLStatus">[1]SETUP!$Q$1:$S$1</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
   <si>
     <t>引用编号</t>
   </si>
@@ -73,7 +81,7 @@
     <t>健康小妙招推荐</t>
   </si>
   <si>
-    <t>作为一个追崇健康的网民，我希望有一个健康小妙招推荐，以便我养成健康的习惯</t>
+    <t>作为一个普通用户，我希望有一个健康小妙招推荐，以便我养成健康的习惯</t>
   </si>
   <si>
     <t>Initial Feature</t>
@@ -97,37 +105,88 @@
     <t>文章点赞</t>
   </si>
   <si>
-    <t>作为一个想收藏文章的网友，我希望有点赞功能，以便我可以点赞喜欢的文章，便于收藏</t>
+    <t>作为一个普通用户，我希望有点赞功能，以便我可以点赞喜欢的文章，便于收藏</t>
   </si>
   <si>
     <t>关注普通用户</t>
   </si>
   <si>
-    <t>作为一个粉丝网友，我希有一个关注功能，以便我可以随时随地找到喜欢的用户</t>
+    <t>作为一个普通用户，我希望有一个关注功能，以便我可以随时随地找到喜欢的用户</t>
   </si>
   <si>
     <t>关注专家</t>
   </si>
   <si>
-    <t>作为一个粉丝网友，我希有一个关注功能，以便我可以随时随地找到喜欢的专家</t>
+    <t>作为一个普通用户，我希望有一个关注功能，以便我可以随时随地找到喜欢的专家</t>
   </si>
   <si>
     <t>搜索健康知识</t>
   </si>
   <si>
-    <t>作为用户，我希望可以直接搜索想看的文章，视频。防止找不到想看的内容</t>
+    <t>作为一个普通用户，我希望可以直接搜索想看的文章，视频。防止找不到想看的内容</t>
   </si>
   <si>
     <t>文章评价</t>
   </si>
   <si>
-    <t>作为一个用户，我希望在读完文章后可以评价文章</t>
+    <t>作为一个普通用户，我希望在读完文章后可以评价文章</t>
   </si>
   <si>
     <t>专家评价</t>
   </si>
   <si>
-    <t>作为一个用户，我希望可以评价发知识内容的专家</t>
+    <t>作为一个普通用户，我希望可以评价发知识内容的专家</t>
+  </si>
+  <si>
+    <t>文章视频推广</t>
+  </si>
+  <si>
+    <t>作为一个运营商，我们希望可以分享文章视频</t>
+  </si>
+  <si>
+    <t>User Model</t>
+  </si>
+  <si>
+    <t>类别</t>
+  </si>
+  <si>
+    <t>User DESCRIPTION</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>SEVERITY</t>
+  </si>
+  <si>
+    <t>NOTES</t>
+  </si>
+  <si>
+    <t>新加入的网友</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 刚刚注册账号</t>
+  </si>
+  <si>
+    <t>普通用户</t>
+  </si>
+  <si>
+    <t>用软件的普通人</t>
+  </si>
+  <si>
+    <t>运营商</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     专家</t>
+  </si>
+  <si>
+    <t>在健康方面有丰富知识的人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   健康达人</t>
+  </si>
+  <si>
+    <t>经常使用软件的比较了解健康小知识的人</t>
   </si>
 </sst>
 </file>
@@ -137,17 +196,49 @@
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0;\-0;;@\ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -157,6 +248,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
@@ -164,14 +267,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,6 +289,89 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -193,14 +380,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -209,18 +388,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -231,97 +417,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -330,6 +427,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor theme="5" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -342,79 +451,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,85 +625,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,20 +635,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -536,15 +645,22 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -557,9 +673,20 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -588,6 +715,51 @@
         <color auto="1"/>
       </right>
       <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -659,15 +831,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,7 +839,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -696,6 +874,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -711,37 +898,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -760,6 +921,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -768,193 +940,238 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1090,6 +1307,59 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="PEOJECT VISION"/>
+      <sheetName val="PROJECT FLOW"/>
+      <sheetName val="PROJECT DASHBOARD"/>
+      <sheetName val="User Model"/>
+      <sheetName val="PROJECT BACKLOG"/>
+      <sheetName val="SPRINT 1"/>
+      <sheetName val="SPRINT 2"/>
+      <sheetName val="RISK LOG"/>
+      <sheetName val="IMPEDIMENTS LOG"/>
+      <sheetName val="SPRINT RETROSPECTIVE"/>
+      <sheetName val="VELOCITY"/>
+      <sheetName val="CALENDAR"/>
+      <sheetName val="ACCEPTANCE"/>
+      <sheetName val="BUDGET"/>
+      <sheetName val="SETUP"/>
+      <sheetName val="SPRINT TEMPLATE"/>
+      <sheetName val="PRINT CARDS"/>
+      <sheetName val="CARD TEMPLATE"/>
+      <sheetName val="SYS CALC"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1350,10 +1620,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1365,69 +1635,69 @@
   </cols>
   <sheetData>
     <row r="1" ht="75.05" spans="1:17">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="35" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8">
-        <v>1</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="A2" s="26">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27">
+        <v>1</v>
+      </c>
+      <c r="C2" s="27">
+        <v>1</v>
+      </c>
+      <c r="D2" s="27" t="s">
         <v>17</v>
       </c>
       <c r="E2" t="s">
@@ -1436,13 +1706,13 @@
       <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="15">
+      <c r="I2" s="34">
         <v>2</v>
       </c>
       <c r="J2">
@@ -1453,16 +1723,16 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="7">
+      <c r="A3" s="26">
         <v>2</v>
       </c>
-      <c r="B3" s="8">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8">
-        <v>1</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="27">
+        <v>1</v>
+      </c>
+      <c r="C3" s="27">
+        <v>1</v>
+      </c>
+      <c r="D3" s="27" t="s">
         <v>17</v>
       </c>
       <c r="E3" t="s">
@@ -1471,13 +1741,13 @@
       <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="34">
         <v>1</v>
       </c>
       <c r="J3">
@@ -1488,16 +1758,16 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="7">
+      <c r="A4" s="26">
         <v>3</v>
       </c>
-      <c r="B4" s="8">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8">
-        <v>1</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="B4" s="27">
+        <v>1</v>
+      </c>
+      <c r="C4" s="27">
+        <v>1</v>
+      </c>
+      <c r="D4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="E4" t="s">
@@ -1506,13 +1776,13 @@
       <c r="F4" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="34">
         <v>3</v>
       </c>
       <c r="J4">
@@ -1523,16 +1793,16 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="7">
+      <c r="A5" s="26">
         <v>4</v>
       </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8">
-        <v>1</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="B5" s="27">
+        <v>1</v>
+      </c>
+      <c r="C5" s="27">
+        <v>1</v>
+      </c>
+      <c r="D5" s="27" t="s">
         <v>17</v>
       </c>
       <c r="E5" t="s">
@@ -1541,13 +1811,13 @@
       <c r="F5" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="34">
         <v>1</v>
       </c>
       <c r="J5">
@@ -1558,16 +1828,16 @@
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="7">
+      <c r="A6" s="26">
         <v>5</v>
       </c>
-      <c r="B6" s="8">
-        <v>1</v>
-      </c>
-      <c r="C6" s="8">
-        <v>1</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="B6" s="27">
+        <v>1</v>
+      </c>
+      <c r="C6" s="27">
+        <v>1</v>
+      </c>
+      <c r="D6" s="27" t="s">
         <v>17</v>
       </c>
       <c r="E6" t="s">
@@ -1576,13 +1846,13 @@
       <c r="F6" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="34">
         <v>1</v>
       </c>
       <c r="J6">
@@ -1593,16 +1863,16 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="7">
+      <c r="A7" s="26">
         <v>6</v>
       </c>
-      <c r="B7" s="8">
-        <v>1</v>
-      </c>
-      <c r="C7" s="8">
-        <v>1</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="B7" s="27">
+        <v>1</v>
+      </c>
+      <c r="C7" s="27">
+        <v>1</v>
+      </c>
+      <c r="D7" s="27" t="s">
         <v>17</v>
       </c>
       <c r="E7" t="s">
@@ -1611,13 +1881,13 @@
       <c r="F7" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="34">
         <v>0.5</v>
       </c>
       <c r="J7">
@@ -1628,16 +1898,16 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="7">
+      <c r="A8" s="26">
         <v>7</v>
       </c>
-      <c r="B8" s="8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="B8" s="27">
+        <v>1</v>
+      </c>
+      <c r="C8" s="27">
+        <v>1</v>
+      </c>
+      <c r="D8" s="27" t="s">
         <v>17</v>
       </c>
       <c r="E8" t="s">
@@ -1646,13 +1916,13 @@
       <c r="F8" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="34">
         <v>2</v>
       </c>
       <c r="J8">
@@ -1663,16 +1933,16 @@
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="7">
+      <c r="A9" s="26">
         <v>8</v>
       </c>
-      <c r="B9" s="8">
-        <v>1</v>
-      </c>
-      <c r="C9" s="8">
-        <v>1</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="B9" s="27">
+        <v>1</v>
+      </c>
+      <c r="C9" s="27">
+        <v>1</v>
+      </c>
+      <c r="D9" s="27" t="s">
         <v>17</v>
       </c>
       <c r="E9" t="s">
@@ -1681,13 +1951,13 @@
       <c r="F9" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="34">
         <v>3</v>
       </c>
       <c r="J9">
@@ -1698,16 +1968,16 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="7">
+      <c r="A10" s="26">
         <v>9</v>
       </c>
-      <c r="B10" s="8">
-        <v>1</v>
-      </c>
-      <c r="C10" s="8">
-        <v>1</v>
-      </c>
-      <c r="D10" s="9" t="s">
+      <c r="B10" s="27">
+        <v>1</v>
+      </c>
+      <c r="C10" s="27">
+        <v>1</v>
+      </c>
+      <c r="D10" s="27" t="s">
         <v>17</v>
       </c>
       <c r="E10" t="s">
@@ -1716,13 +1986,13 @@
       <c r="F10" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="34">
         <v>0.5</v>
       </c>
       <c r="J10">
@@ -1732,38 +2002,228 @@
         <v>2</v>
       </c>
     </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="28">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="28">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="expression" dxfId="0" priority="5">
+      <formula>Sheet1!$H4="WITHDRAWN"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>Sheet1!$H4="WITHDRAWN"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>Sheet1!$H4="WITHDRAWN"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>Sheet1!$H4="WITHDRAWN"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A7">
     <cfRule type="expression" dxfId="0" priority="6">
-      <formula>Sheet1!$H14="WITHDRAWN"</formula>
+      <formula>$H14="WITHDRAWN"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A4 A5:A8 A3:A8">
-    <cfRule type="expression" dxfId="0" priority="5">
-      <formula>Sheet1!$H2="WITHDRAWN"</formula>
+  <conditionalFormatting sqref="A2:A3">
+    <cfRule type="expression" dxfId="0" priority="7">
+      <formula>$H2="WITHDRAWN"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B4 B5:B10">
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>Sheet1!$H2="WITHDRAWN"</formula>
+  <conditionalFormatting sqref="A5:A8">
+    <cfRule type="expression" dxfId="0" priority="11">
+      <formula>$H5="WITHDRAWN"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C4 C5:C10">
-    <cfRule type="expression" dxfId="0" priority="3">
-      <formula>Sheet1!$H2="WITHDRAWN"</formula>
+  <conditionalFormatting sqref="A9:A10">
+    <cfRule type="expression" dxfId="0" priority="4">
+      <formula>$H9="WITHDRAWN"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I9 I10">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>Sheet1!$H2="WITHDRAWN"</formula>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="expression" dxfId="0" priority="8">
+      <formula>$H2="WITHDRAWN"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:A10 A9:A10">
-    <cfRule type="expression" dxfId="0" priority="4">
-      <formula>Sheet1!$H9="WITHDRAWN"</formula>
+  <conditionalFormatting sqref="B5:B10">
+    <cfRule type="expression" dxfId="0" priority="12">
+      <formula>$H5="WITHDRAWN"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C3">
+    <cfRule type="expression" dxfId="0" priority="9">
+      <formula>$H2="WITHDRAWN"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:C10">
+    <cfRule type="expression" dxfId="0" priority="13">
+      <formula>$H5="WITHDRAWN"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I3">
+    <cfRule type="expression" dxfId="0" priority="10">
+      <formula>$H2="WITHDRAWN"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:I10">
+    <cfRule type="expression" dxfId="0" priority="14">
+      <formula>$H5="WITHDRAWN"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="17.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="83.3333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="32.4" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="18"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6:C7">
+      <formula1>RLStatus</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6:D7">
+      <formula1>RLSevirity</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>